--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC94DAA-6035-40CB-9607-C3CCBEB8BFF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -19,10 +20,18 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -640,9 +649,6 @@
     <t>ha</t>
   </si>
   <si>
-    <t>Increase in productivity</t>
-  </si>
-  <si>
     <t>0.32-0.99</t>
   </si>
   <si>
@@ -656,12 +662,15 @@
   </si>
   <si>
     <t>Scaled specific cost of low cost greenhouse</t>
+  </si>
+  <si>
+    <t>Increase in productivity with 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1212,23 +1221,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="22.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1242,28 +1251,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1272,22 +1281,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1304,23 +1313,23 @@
       </c>
       <c r="C2" s="1">
         <f>main!C14</f>
-        <v>30.701954059538373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>1.0007039945675418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1328,7 +1337,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1341,27 +1350,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15625" style="1"/>
-    <col min="8" max="8" width="10.05078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.15625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1405,13 +1414,13 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C15</f>
-        <v>-0.32</v>
+        <v>-1.0642639172967594E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1420,30 +1429,30 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1452,13 +1461,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>C3 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1471,24 +1480,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.15625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1517,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1520,24 +1529,24 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1545,13 +1554,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1564,21 +1573,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.83984375" customWidth="1"/>
-    <col min="3" max="3" width="47.15625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1590,7 +1599,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1612,7 +1621,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1634,7 +1643,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1656,7 +1665,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1711,7 +1720,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1755,7 +1764,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1799,7 +1808,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1810,7 +1819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1852,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1854,7 +1863,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1931,7 +1940,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1942,7 +1951,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1964,7 +1973,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1975,7 +1984,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1986,7 +1995,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2058,7 +2067,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2066,7 +2075,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2074,7 +2083,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2114,7 +2123,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2122,7 +2131,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2130,87 +2139,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2221,24 +2230,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.62890625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>172</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="17" t="s">
         <v>194</v>
@@ -2296,7 +2305,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="17" t="s">
         <v>197</v>
@@ -2314,7 +2323,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="17" t="s">
         <v>199</v>
@@ -2327,7 +2336,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
@@ -2340,7 +2349,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
@@ -2353,7 +2362,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="17" t="s">
         <v>201</v>
@@ -2366,11 +2375,11 @@
         <v>202</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>178</v>
       </c>
@@ -2378,38 +2387,38 @@
         <v>200</v>
       </c>
       <c r="C9" s="25">
-        <v>0.01</v>
+        <v>3.325824741552373E-5</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C10" s="25">
         <v>0.32</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="27">
         <f>C9*C8</f>
-        <v>882.78</v>
+        <v>2.9359715653476037</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
@@ -2418,14 +2427,14 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" s="27">
         <f>C2*(C11*10^4/C3)^0.6/10^6</f>
-        <v>30.701954059538373</v>
+        <v>1.0007039945675418</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
@@ -2434,14 +2443,14 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="27">
         <f>C12*10^2/C11</f>
-        <v>3.4778715036066035</v>
+        <v>34.084253620796346</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
@@ -2450,7 +2459,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>180</v>
       </c>
@@ -2459,7 +2468,7 @@
       </c>
       <c r="C14" s="26">
         <f>C12</f>
-        <v>30.701954059538373</v>
+        <v>1.0007039945675418</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26" t="s">
@@ -2470,14 +2479,14 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
       <c r="B15" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="26">
-        <f>C10</f>
-        <v>0.32</v>
+        <f>C10*C9</f>
+        <v>1.0642639172967594E-5</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC94DAA-6035-40CB-9607-C3CCBEB8BFF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -613,9 +612,6 @@
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>400-500</t>
-  </si>
-  <si>
     <t>Cost of low cost greenhouse</t>
   </si>
   <si>
@@ -628,9 +624,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>BrazAfric</t>
-  </si>
-  <si>
     <t>Specific cost</t>
   </si>
   <si>
@@ -649,9 +642,6 @@
     <t>ha</t>
   </si>
   <si>
-    <t>0.32-0.99</t>
-  </si>
-  <si>
     <t>Total volume of Intervention</t>
   </si>
   <si>
@@ -665,13 +655,22 @@
   </si>
   <si>
     <t>Increase in productivity with 100%</t>
+  </si>
+  <si>
+    <t>75-140</t>
+  </si>
+  <si>
+    <t>https://graduatefarmer.co.ke/marketplace/product/farm-shade-netting/</t>
+  </si>
+  <si>
+    <t>0.2-0.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +727,14 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -841,10 +848,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -908,8 +916,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1221,23 +1231,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="22.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1251,28 +1261,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1281,22 +1291,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1313,23 +1323,23 @@
       </c>
       <c r="C2" s="1">
         <f>main!C14</f>
-        <v>1.0007039945675418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.99985981789380241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1337,7 +1347,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1350,27 +1360,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.1015625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1414,13 +1424,13 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C15</f>
-        <v>-1.0642639172967594E-5</v>
+        <v>-1.9438870059561523E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1429,30 +1439,30 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1461,13 +1471,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>C3 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1480,24 +1490,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1529,24 +1539,24 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1554,13 +1564,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1573,21 +1583,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.89453125" customWidth="1"/>
+    <col min="3" max="3" width="47.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1609,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1631,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1632,7 +1642,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1643,7 +1653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1654,7 +1664,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1675,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1687,7 +1697,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1709,7 +1719,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1763,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1764,7 +1774,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1775,7 +1785,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1786,7 +1796,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1797,7 +1807,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1818,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1819,7 +1829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1840,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1874,7 +1884,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +1917,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1918,7 +1928,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1929,7 +1939,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1962,7 +1972,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1983,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +1994,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1995,7 +2005,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2019,7 +2029,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2035,7 +2045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2059,7 +2069,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2075,7 +2085,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2083,7 +2093,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2091,7 +2101,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2099,7 +2109,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2131,7 +2141,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2139,87 +2149,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2230,24 +2240,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.68359375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.68359375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2270,29 +2280,30 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="29" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="24">
-        <v>168000</v>
+        <f>C4*C3</f>
+        <v>112500</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30"/>
       <c r="B3" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="24">
         <f>50*30</f>
@@ -2300,33 +2311,32 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30"/>
       <c r="B4" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="24">
-        <f>C2/C3</f>
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="30"/>
       <c r="B5" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="24">
         <v>0.6</v>
@@ -2336,7 +2346,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="30"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
@@ -2349,7 +2359,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="30"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
@@ -2362,79 +2372,79 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30"/>
       <c r="B8" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="24">
         <v>88278</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>205</v>
-      </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="32" t="s">
         <v>178</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" s="25">
-        <v>3.325824741552373E-5</v>
+        <v>6.4796233531871745E-5</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C10" s="25">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C11" s="27">
         <f>C9*C8</f>
-        <v>2.9359715653476037</v>
+        <v>5.720081903726574</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31"/>
       <c r="B12" s="22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C12" s="27">
         <f>C2*(C11*10^4/C3)^0.6/10^6</f>
-        <v>1.0007039945675418</v>
+        <v>0.99985981789380241</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
@@ -2443,23 +2453,23 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31"/>
       <c r="B13" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" s="27">
         <f>C12*10^2/C11</f>
-        <v>34.084253620796346</v>
+        <v>17.479816455816902</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>180</v>
       </c>
@@ -2468,7 +2478,7 @@
       </c>
       <c r="C14" s="26">
         <f>C12</f>
-        <v>1.0007039945675418</v>
+        <v>0.99985981789380241</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26" t="s">
@@ -2479,14 +2489,14 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28"/>
       <c r="B15" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="26">
         <f>C10*C9</f>
-        <v>1.0642639172967594E-5</v>
+        <v>1.9438870059561523E-5</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -2502,7 +2512,10 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A9:A10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC94DAA-6035-40CB-9607-C3CCBEB8BFF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4771056-8D77-4516-9DD3-C924F21AD37C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13830" yWindow="-16500" windowWidth="13830" windowHeight="7170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -613,9 +613,6 @@
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>400-500</t>
-  </si>
-  <si>
     <t>Cost of low cost greenhouse</t>
   </si>
   <si>
@@ -665,6 +662,9 @@
   </si>
   <si>
     <t>Increase in productivity with 100%</t>
+  </si>
+  <si>
+    <t>75-140</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C14</f>
-        <v>1.0007039945675418</v>
+        <v>1.0007629570009293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C15</f>
-        <v>-1.0642639172967594E-5</v>
+        <v>-1.6026442071306047E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
@@ -2233,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2275,24 +2275,25 @@
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="24">
-        <v>168000</v>
+        <f>C3*C4</f>
+        <v>161250</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="24">
         <f>50*30</f>
@@ -2300,7 +2301,7 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -2308,17 +2309,16 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="24">
+        <v>107.5</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="C4" s="24">
-        <f>C2/C3</f>
-        <v>112</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>198</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -2326,7 +2326,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="24">
         <v>0.6</v>
@@ -2365,17 +2365,17 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="24">
         <v>88278</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" s="18"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>178</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="25">
-        <v>3.325824741552373E-5</v>
+        <v>3.5614315714013433E-5</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -2397,14 +2397,14 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="25">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -2414,15 +2414,15 @@
         <v>179</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" s="27">
         <f>C9*C8</f>
-        <v>2.9359715653476037</v>
+        <v>3.143960562601678</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
@@ -2430,11 +2430,11 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" s="27">
         <f>C2*(C11*10^4/C3)^0.6/10^6</f>
-        <v>1.0007039945675418</v>
+        <v>1.0007629570009293</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
@@ -2446,15 +2446,15 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" s="27">
         <f>C12*10^2/C11</f>
-        <v>34.084253620796346</v>
+        <v>31.831282138373322</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="C14" s="26">
         <f>C12</f>
-        <v>1.0007039945675418</v>
+        <v>1.0007629570009293</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26" t="s">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C15" s="26">
         <f>C10*C9</f>
-        <v>1.0642639172967594E-5</v>
+        <v>1.6026442071306047E-5</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4771056-8D77-4516-9DD3-C924F21AD37C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07078D1C-2D39-4142-AB1D-F557FC388556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13830" yWindow="-16500" windowWidth="13830" windowHeight="7170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C14</f>
-        <v>1.0007629570009293</v>
+        <v>1.0007138529494082</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C15</f>
-        <v>-1.6026442071306047E-5</v>
+        <v>-1.6025131487282149E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
@@ -2234,13 +2234,14 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -2387,7 +2388,7 @@
         <v>199</v>
       </c>
       <c r="C9" s="25">
-        <v>3.5614315714013433E-5</v>
+        <v>3.5611403305071443E-5</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -2402,10 +2403,10 @@
       <c r="C10" s="25">
         <v>0.45</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>202</v>
       </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
@@ -2418,7 +2419,7 @@
       </c>
       <c r="C11" s="27">
         <f>C9*C8</f>
-        <v>3.143960562601678</v>
+        <v>3.1437034609650967</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
@@ -2434,7 +2435,7 @@
       </c>
       <c r="C12" s="27">
         <f>C2*(C11*10^4/C3)^0.6/10^6</f>
-        <v>1.0007629570009293</v>
+        <v>1.0007138529494082</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
@@ -2450,7 +2451,7 @@
       </c>
       <c r="C13" s="27">
         <f>C12*10^2/C11</f>
-        <v>31.831282138373322</v>
+        <v>31.832323416477568</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
@@ -2468,7 +2469,7 @@
       </c>
       <c r="C14" s="26">
         <f>C12</f>
-        <v>1.0007629570009293</v>
+        <v>1.0007138529494082</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26" t="s">
@@ -2486,7 +2487,7 @@
       </c>
       <c r="C15" s="26">
         <f>C10*C9</f>
-        <v>1.6026442071306047E-5</v>
+        <v>1.6025131487282149E-5</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07078D1C-2D39-4142-AB1D-F557FC388556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="215">
   <si>
     <t>level_row</t>
   </si>
@@ -625,9 +624,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>BrazAfric</t>
-  </si>
-  <si>
     <t>Specific cost</t>
   </si>
   <si>
@@ -646,9 +642,6 @@
     <t>ha</t>
   </si>
   <si>
-    <t>0.32-0.99</t>
-  </si>
-  <si>
     <t>Total volume of Intervention</t>
   </si>
   <si>
@@ -664,13 +657,37 @@
     <t>Increase in productivity with 100%</t>
   </si>
   <si>
-    <t>75-140</t>
+    <t>https://graduatefarmer.co.ke/marketplace/product/farm-shade-netting/</t>
+  </si>
+  <si>
+    <t>0.4-0.8**</t>
+  </si>
+  <si>
+    <t>75-140*</t>
+  </si>
+  <si>
+    <t>**Since we have the assumption of purchasing the nets. There is no physical economy of scale</t>
+  </si>
+  <si>
+    <t>0.32-0.99***</t>
+  </si>
+  <si>
+    <t>*** We should find an expert to find a more narrow range for productivity based on the change in some factors such as the gowth in photosynthesis and leaves area</t>
+  </si>
+  <si>
+    <t>ref1: Physiological Growth Response in Seedlings of Arabica Coffee Genotypes Under Contrasting Nursery Microenvironments</t>
+  </si>
+  <si>
+    <t>ref2: https://www.researchgate.net/publication/293009127_Physiological_Growth_Response_in_Seedlings_of_Arabica_Coffee_Genotypes_Under_Contrasting_Nursery_Microenvironments</t>
+  </si>
+  <si>
+    <t>*Based on the climate condition of Kenya for coffee nurseries a shading net with around 70-80% shading level is recommended at the beginning of growing the plants but it can be reduced by the passage of time. (https://www.infonet-biovision.org/PlantHealth/Crops/Coffee)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -844,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -908,6 +925,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,23 +1239,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="22.1015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1251,28 +1269,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1281,22 +1299,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1316,20 +1334,20 @@
         <v>1.0007138529494082</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1337,7 +1355,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1350,27 +1368,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="2" max="2" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.1015625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1420,7 +1438,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1429,30 +1447,30 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1461,13 +1479,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>C3 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1480,24 +1498,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.1015625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.1015625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1517,7 +1535,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1529,24 +1547,24 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1554,13 +1572,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1573,21 +1591,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.89453125" customWidth="1"/>
+    <col min="3" max="3" width="47.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1617,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1628,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1639,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1632,7 +1650,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1643,7 +1661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1654,7 +1672,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1665,7 +1683,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1687,7 +1705,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1720,7 +1738,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1731,7 +1749,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1764,7 +1782,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1775,7 +1793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1786,7 +1804,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1797,7 +1815,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1819,7 +1837,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1830,7 +1848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1841,7 +1859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1852,7 +1870,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1863,7 +1881,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1874,7 +1892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1885,7 +1903,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1896,7 +1914,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1907,7 +1925,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1918,7 +1936,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +1958,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1951,7 +1969,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1973,7 +1991,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +2002,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -1995,7 +2013,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +2021,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2011,7 +2029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2027,7 +2045,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2035,7 +2053,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2061,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2051,7 +2069,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2059,7 +2077,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2067,7 +2085,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2091,7 +2109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2099,7 +2117,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2107,7 +2125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2123,7 +2141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2131,7 +2149,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2139,87 +2157,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2230,25 +2248,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.68359375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.68359375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2271,7 +2289,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="29" t="s">
         <v>172</v>
       </c>
@@ -2288,10 +2306,10 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="30"/>
       <c r="B3" s="17" t="s">
         <v>193</v>
@@ -2307,10 +2325,10 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="30"/>
       <c r="B4" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="24">
         <v>107.5</v>
@@ -2319,25 +2337,27 @@
         <v>208</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="30"/>
       <c r="B5" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C5" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>207</v>
+      </c>
       <c r="E5" s="24"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="30"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
@@ -2350,7 +2370,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="30"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
@@ -2363,29 +2383,29 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="30"/>
       <c r="B8" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="24">
         <v>88278</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="32" t="s">
         <v>178</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="25">
         <v>3.5611403305071443E-5</v>
@@ -2395,27 +2415,27 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="32"/>
       <c r="B10" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" s="25">
         <v>0.45</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31" t="s">
         <v>179</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C11" s="27">
         <f>C9*C8</f>
@@ -2423,15 +2443,15 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31"/>
       <c r="B12" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C12" s="27">
         <f>C2*(C11*10^4/C3)^0.6/10^6</f>
@@ -2444,10 +2464,10 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31"/>
       <c r="B13" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" s="27">
         <f>C12*10^2/C11</f>
@@ -2455,12 +2475,12 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="28" t="s">
         <v>180</v>
       </c>
@@ -2480,7 +2500,7 @@
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="28"/>
       <c r="B15" s="19" t="s">
         <v>181</v>
@@ -2495,6 +2515,31 @@
         <v>186</v>
       </c>
       <c r="G15" s="20"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="33" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F45FB70-2F0D-46D5-9716-7F3925C7A4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
     <sheet name="Y" sheetId="1" r:id="rId2"/>
     <sheet name="Z" sheetId="4" r:id="rId3"/>
     <sheet name="VA" sheetId="5" r:id="rId4"/>
-    <sheet name="Indeces" sheetId="8" r:id="rId5"/>
-    <sheet name="main" sheetId="9" r:id="rId6"/>
+    <sheet name="UL" sheetId="10" r:id="rId5"/>
+    <sheet name="Indeces" sheetId="8" r:id="rId6"/>
+    <sheet name="main" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="223">
   <si>
     <t>level_row</t>
   </si>
@@ -636,9 +638,6 @@
     <t>Percentage of smallholders to be covered</t>
   </si>
   <si>
-    <t>Area covered by smallholders</t>
-  </si>
-  <si>
     <t>ha</t>
   </si>
   <si>
@@ -669,9 +668,6 @@
     <t>**Since we have the assumption of purchasing the nets. There is no physical economy of scale</t>
   </si>
   <si>
-    <t>0.32-0.99***</t>
-  </si>
-  <si>
     <t>*** We should find an expert to find a more narrow range for productivity based on the change in some factors such as the gowth in photosynthesis and leaves area</t>
   </si>
   <si>
@@ -682,13 +678,43 @@
   </si>
   <si>
     <t>*Based on the climate condition of Kenya for coffee nurseries a shading net with around 70-80% shading level is recommended at the beginning of growing the plants but it can be reduced by the passage of time. (https://www.infonet-biovision.org/PlantHealth/Crops/Coffee)</t>
+  </si>
+  <si>
+    <t>Number of cooperatives</t>
+  </si>
+  <si>
+    <t>Area covered by each cooperative</t>
+  </si>
+  <si>
+    <t>0.5-1</t>
+  </si>
+  <si>
+    <t>Bendetta</t>
+  </si>
+  <si>
+    <t>Due to heathier coffee seedlings</t>
+  </si>
+  <si>
+    <t>Functional Unit</t>
+  </si>
+  <si>
+    <t>0.02-0.05</t>
+  </si>
+  <si>
+    <t>Useful life</t>
+  </si>
+  <si>
+    <t>Useful life of the shading nets</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,8 +775,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,6 +830,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,10 +904,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -910,6 +957,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,10 +973,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1239,23 +1304,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
-    <col min="2" max="2" width="22.1015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1015625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1269,28 +1334,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1299,22 +1364,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1015625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1330,24 +1395,24 @@
         <v>68</v>
       </c>
       <c r="C2" s="1">
-        <f>main!C14</f>
-        <v>1.0007138529494082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f>main!C18</f>
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1355,7 +1420,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1368,27 +1433,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
-    <col min="2" max="2" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.89453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1015625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1015625" style="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1476,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1431,14 +1496,14 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <f>-main!C15</f>
-        <v>-1.6025131487282149E-5</v>
+        <f>-main!C19</f>
+        <v>-0.05</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1447,30 +1512,30 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1479,13 +1544,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>C3 E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1498,24 +1563,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1015625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1015625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1535,7 +1600,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1547,24 +1612,24 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1572,13 +1637,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$C$2:$C$37</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -1591,21 +1656,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB024B3D-A6C8-4D91-BB85-31FED17CE7EF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1">
+        <f>main!C9</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.89453125" customWidth="1"/>
-    <col min="3" max="3" width="47.1015625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1617,7 +1706,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1628,7 +1717,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1728,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1739,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1750,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1672,7 +1761,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1683,7 +1772,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1694,7 +1783,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1794,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1816,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1738,7 +1827,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1838,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1760,7 +1849,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1771,7 +1860,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1782,7 +1871,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1793,7 +1882,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1804,7 +1893,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1815,7 +1904,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1915,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1837,7 +1926,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1848,7 +1937,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1859,7 +1948,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1870,7 +1959,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1881,7 +1970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1892,7 +1981,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1903,7 +1992,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1914,7 +2003,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -1925,7 +2014,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +2025,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1947,7 +2036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1958,7 +2047,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1969,7 +2058,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1980,7 +2069,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1991,7 +2080,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2002,7 +2091,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2013,7 +2102,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2021,7 +2110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2029,7 +2118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2037,7 +2126,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2045,7 +2134,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2053,7 +2142,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2061,7 +2150,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2069,7 +2158,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2077,7 +2166,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2085,7 +2174,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2093,7 +2182,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2101,7 +2190,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2109,7 +2198,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2117,7 +2206,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2125,7 +2214,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2133,7 +2222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2141,7 +2230,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2149,7 +2238,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2157,87 +2246,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2247,26 +2336,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.68359375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2289,8 +2378,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2306,16 +2395,15 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="30"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
       <c r="B3" s="17" t="s">
         <v>193</v>
       </c>
       <c r="C3" s="24">
-        <f>50*30</f>
         <v>1500</v>
       </c>
       <c r="D3" s="24"/>
@@ -2325,8 +2413,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="30"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
       <c r="B4" s="17" t="s">
         <v>195</v>
       </c>
@@ -2334,7 +2422,7 @@
         <v>107.5</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>196</v>
@@ -2342,8 +2430,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="17" t="s">
         <v>197</v>
       </c>
@@ -2351,18 +2439,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="39">
         <v>8.3479305095333606E-2</v>
       </c>
       <c r="D6" s="24"/>
@@ -2370,8 +2458,8 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -2383,170 +2471,234 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
       <c r="B8" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="24">
+        <v>500</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="38">
+        <f>C10/C9</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="25">
+        <v>1</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="24">
-        <v>88278</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="C14" s="27">
+        <f>C12*C10</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="27">
+        <f>C9/C10</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="25">
-        <v>3.5611403305071443E-5</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="32"/>
-      <c r="B10" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="25">
-        <v>0.45</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="27">
-        <f>C9*C8</f>
-        <v>3.1437034609650967</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31"/>
-      <c r="B12" s="22" t="s">
+      <c r="C16" s="27">
+        <f>C2*(C14*10^4/C3)^C5/10^6</f>
+        <v>1.075</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="27">
-        <f>C2*(C11*10^4/C3)^0.6/10^6</f>
-        <v>1.0007138529494082</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27" t="s">
+      <c r="C17" s="27">
+        <f>C16*10^2/C14</f>
+        <v>107.5</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="26">
+        <f>C16</f>
+        <v>1.075</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="31"/>
-      <c r="B13" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="27">
-        <f>C12*10^2/C11</f>
-        <v>31.832323416477568</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="26">
-        <f>C12</f>
-        <v>1.0007138529494082</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="28"/>
-      <c r="B15" s="19" t="s">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
+      <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="26">
-        <f>C10*C9</f>
-        <v>1.6025131487282149E-5</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="20" t="s">
+      <c r="C19" s="40">
+        <f>C13*C11</f>
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33" t="s">
-        <v>213</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A2:A9"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F45FB70-2F0D-46D5-9716-7F3925C7A4CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA793C2E-E9B3-4BB8-9F46-E66C1D575C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="227">
   <si>
     <t>level_row</t>
   </si>
@@ -659,12 +659,6 @@
     <t>https://graduatefarmer.co.ke/marketplace/product/farm-shade-netting/</t>
   </si>
   <si>
-    <t>0.4-0.8**</t>
-  </si>
-  <si>
-    <t>75-140*</t>
-  </si>
-  <si>
     <t>**Since we have the assumption of purchasing the nets. There is no physical economy of scale</t>
   </si>
   <si>
@@ -686,9 +680,6 @@
     <t>Area covered by each cooperative</t>
   </si>
   <si>
-    <t>0.5-1</t>
-  </si>
-  <si>
     <t>Bendetta</t>
   </si>
   <si>
@@ -698,9 +689,6 @@
     <t>Functional Unit</t>
   </si>
   <si>
-    <t>0.02-0.05</t>
-  </si>
-  <si>
     <t>Useful life</t>
   </si>
   <si>
@@ -708,6 +696,30 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Sensistivity</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>75-140*,13</t>
+  </si>
+  <si>
+    <t>0.4-0.8**,(0.1)</t>
+  </si>
+  <si>
+    <t>0.5-1,0,0.1</t>
+  </si>
+  <si>
+    <t>0.02-0.05,0.01</t>
   </si>
 </sst>
 </file>
@@ -958,21 +970,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -988,6 +985,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,16 +1323,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1334,23 +1346,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1365,29 +1377,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1398,21 +1423,24 @@
         <f>main!C18</f>
         <v>1.075</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1434,26 +1462,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I1" sqref="I1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1475,8 +1503,20 @@
       <c r="H1" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1502,8 +1542,11 @@
       <c r="H2" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1512,17 +1555,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1564,23 +1607,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1599,8 +1644,20 @@
       <c r="G1" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1612,16 +1669,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1657,19 +1714,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB024B3D-A6C8-4D91-BB85-31FED17CE7EF}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2">
         <f>main!C9</f>
         <v>1</v>
       </c>
@@ -1687,14 +1752,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1706,7 +1771,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1782,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1728,7 +1793,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1739,7 +1804,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +1815,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1761,7 +1826,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1772,7 +1837,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1783,7 +1848,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1794,7 +1859,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1881,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1827,7 +1892,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1838,7 +1903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1849,7 +1914,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1860,7 +1925,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1871,7 +1936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1882,7 +1947,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1893,7 +1958,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1904,7 +1969,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1915,7 +1980,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +1991,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1937,7 +2002,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1948,7 +2013,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1959,7 +2024,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1970,7 +2035,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1981,7 +2046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1992,7 +2057,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2003,7 +2068,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2014,7 +2079,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2025,7 +2090,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2036,7 +2101,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2047,7 +2112,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2058,7 +2123,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2069,7 +2134,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2080,7 +2145,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2091,7 +2156,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2102,7 +2167,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2110,7 +2175,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2118,7 +2183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2126,7 +2191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2134,7 +2199,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2142,7 +2207,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2150,7 +2215,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2158,7 +2223,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2166,7 +2231,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2174,7 +2239,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2182,7 +2247,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2190,7 +2255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2198,7 +2263,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2206,7 +2271,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2214,7 +2279,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2222,7 +2287,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2230,7 +2295,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2238,7 +2303,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2246,87 +2311,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2338,24 +2403,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2378,8 +2443,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2398,8 +2463,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
       <c r="B3" s="17" t="s">
         <v>193</v>
       </c>
@@ -2413,8 +2478,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
       <c r="B4" s="17" t="s">
         <v>195</v>
       </c>
@@ -2422,7 +2487,7 @@
         <v>107.5</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>196</v>
@@ -2430,8 +2495,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="17" t="s">
         <v>197</v>
       </c>
@@ -2439,18 +2504,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <v>8.3479305095333606E-2</v>
       </c>
       <c r="D6" s="24"/>
@@ -2458,8 +2523,8 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -2471,10 +2536,10 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C8" s="24">
         <v>500</v>
@@ -2486,44 +2551,44 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C9" s="24">
         <v>1</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C10" s="36">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="31">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="33">
         <f>C10/C9</f>
         <v>1</v>
       </c>
@@ -2532,44 +2597,44 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
       <c r="B12" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>199</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="33">
         <v>0.05</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2586,8 +2651,8 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
       <c r="B15" s="22" t="s">
         <v>198</v>
       </c>
@@ -2600,8 +2665,8 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
       <c r="B16" s="22" t="s">
         <v>202</v>
       </c>
@@ -2616,8 +2681,8 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
       <c r="B17" s="22" t="s">
         <v>203</v>
       </c>
@@ -2632,8 +2697,8 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2652,12 +2717,12 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="35">
         <f>C13*C11</f>
         <v>0.05</v>
       </c>
@@ -2668,29 +2733,35 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>211</v>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f>(140-75)/5</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA793C2E-E9B3-4BB8-9F46-E66C1D575C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4BF04-EA74-4A6F-934A-206A02323A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="228">
   <si>
     <t>level_row</t>
   </si>
@@ -719,13 +719,19 @@
     <t>0.5-1,0,0.1</t>
   </si>
   <si>
-    <t>0.02-0.05,0.01</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0-0.05,0.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -984,9 +990,6 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1000,6 +1003,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,16 +1329,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1346,23 +1352,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1383,16 +1389,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1427,20 +1433,20 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1465,23 +1471,23 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1537,16 +1543,16 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C19</f>
-        <v>-0.05</v>
+        <v>-2.0000000000000002E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1555,17 +1561,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1613,19 +1619,19 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1669,16 +1675,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1720,17 +1726,17 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>216</v>
       </c>
@@ -1752,14 +1758,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1771,7 +1777,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2199,7 +2205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2215,7 +2221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2247,7 +2253,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2311,87 +2317,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2406,21 +2412,21 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2443,8 +2449,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2463,8 +2469,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
       <c r="B3" s="17" t="s">
         <v>193</v>
       </c>
@@ -2478,8 +2484,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
       <c r="B4" s="17" t="s">
         <v>195</v>
       </c>
@@ -2495,8 +2501,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
       <c r="B5" s="17" t="s">
         <v>197</v>
       </c>
@@ -2510,8 +2516,8 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
@@ -2523,8 +2529,8 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -2536,8 +2542,8 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
       <c r="B8" s="17" t="s">
         <v>211</v>
       </c>
@@ -2551,8 +2557,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
       <c r="B9" s="17" t="s">
         <v>217</v>
       </c>
@@ -2566,7 +2572,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>215</v>
       </c>
@@ -2581,24 +2587,24 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>198</v>
       </c>
       <c r="C11" s="33">
-        <f>C10/C9</f>
-        <v>1</v>
+        <f>C10/C8</f>
+        <v>2E-3</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
       <c r="B12" s="16" t="s">
         <v>212</v>
       </c>
@@ -2616,16 +2622,16 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
       <c r="B13" s="16" t="s">
         <v>204</v>
       </c>
       <c r="C13" s="33">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="21"/>
@@ -2633,8 +2639,8 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2651,8 +2657,8 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
       <c r="B15" s="22" t="s">
         <v>198</v>
       </c>
@@ -2665,8 +2671,8 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
       <c r="B16" s="22" t="s">
         <v>202</v>
       </c>
@@ -2681,8 +2687,8 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
       <c r="B17" s="22" t="s">
         <v>203</v>
       </c>
@@ -2697,8 +2703,8 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2717,14 +2723,14 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="35"/>
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="40">
         <f>C13*C11</f>
-        <v>0.05</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2733,32 +2739,32 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33">
         <f>(140-75)/5</f>
         <v>13</v>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA4BF04-EA74-4A6F-934A-206A02323A0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5230D094-1C31-44BE-8E40-1122969AA79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="227">
   <si>
     <t>level_row</t>
   </si>
@@ -606,9 +606,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Agreggated</t>
   </si>
   <si>
     <t>Sensitivity</t>
@@ -730,7 +727,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -990,6 +987,9 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,9 +1003,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,16 +1326,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1352,23 +1349,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1389,16 +1386,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1406,19 +1403,19 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1433,20 +1430,20 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1471,23 +1468,23 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1510,19 +1507,19 @@
         <v>187</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1549,10 +1546,10 @@
         <v>188</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1561,17 +1558,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1616,22 +1613,22 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1648,22 +1645,22 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1675,16 +1672,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1726,19 +1723,19 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2">
         <f>main!C9</f>
@@ -1758,14 +1755,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1777,7 +1774,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1799,7 +1796,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1810,7 +1807,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1821,7 +1818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1832,7 +1829,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1843,7 +1840,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1851,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1876,7 +1873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1887,7 +1884,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1909,7 +1906,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1920,7 +1917,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1928,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1942,7 +1939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1953,7 +1950,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1964,7 +1961,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1997,7 +1994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2008,7 +2005,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2019,7 +2016,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2041,7 +2038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2052,7 +2049,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2063,7 +2060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2096,7 +2093,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2118,7 +2115,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2140,7 +2137,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2151,7 +2148,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2181,7 +2178,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2189,7 +2186,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2197,7 +2194,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2205,7 +2202,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2213,7 +2210,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2221,7 +2218,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2229,7 +2226,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2237,7 +2234,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2245,7 +2242,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2253,7 +2250,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2261,7 +2258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2269,7 +2266,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2277,7 +2274,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2285,7 +2282,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2293,7 +2290,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2301,7 +2298,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2309,7 +2306,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2317,87 +2314,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2412,21 +2409,21 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2437,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>175</v>
@@ -2449,12 +2446,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="24">
         <f>C3*C4</f>
@@ -2462,62 +2459,62 @@
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
       <c r="B3" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" s="24">
         <v>1500</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
       <c r="B4" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="24">
         <v>107.5</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="24">
         <v>1</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
@@ -2529,8 +2526,8 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -2542,10 +2539,10 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="24">
         <v>500</v>
@@ -2554,30 +2551,30 @@
       <c r="E8" s="24"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
       <c r="B9" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="24">
         <v>1</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="31">
         <v>1</v>
@@ -2587,12 +2584,12 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="33">
         <f>C10/C8</f>
@@ -2603,48 +2600,48 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
       <c r="B12" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C12" s="25">
         <v>1</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
       <c r="B13" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="33">
         <v>0.01</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="27">
         <f>C12*C10</f>
@@ -2652,15 +2649,15 @@
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
       <c r="B15" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="27">
         <f>C9/C10</f>
@@ -2671,10 +2668,10 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
       <c r="B16" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="27">
         <f>C2*(C14*10^4/C3)^C5/10^6</f>
@@ -2687,10 +2684,10 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40"/>
       <c r="B17" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="27">
         <f>C16*10^2/C14</f>
@@ -2698,13 +2695,13 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2723,12 +2720,12 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="35">
         <f>C13*C11</f>
         <v>2.0000000000000002E-5</v>
       </c>
@@ -2739,32 +2736,32 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33">
         <f>(140-75)/5</f>
         <v>13</v>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5230D094-1C31-44BE-8E40-1122969AA79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E67FF-9169-4DC3-923A-E726275778B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -726,8 +726,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -923,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -987,9 +988,6 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,6 +1001,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,6 +1433,15 @@
       <c r="D2" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="E2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1467,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1494,9 @@
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1540,13 +1555,23 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C19</f>
-        <v>-2.0000000000000002E-5</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>225</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(K2-J2)/5</f>
+        <v>1.9999999999999999E-7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2408,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2472,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2467,7 +2492,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="17" t="s">
         <v>192</v>
       </c>
@@ -2482,7 +2507,7 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="17" t="s">
         <v>194</v>
       </c>
@@ -2499,7 +2524,7 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="17" t="s">
         <v>196</v>
       </c>
@@ -2514,7 +2539,7 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
@@ -2527,7 +2552,7 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -2540,7 +2565,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="17" t="s">
         <v>210</v>
       </c>
@@ -2555,7 +2580,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="17" t="s">
         <v>216</v>
       </c>
@@ -2585,7 +2610,7 @@
       <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -2601,7 +2626,7 @@
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="16" t="s">
         <v>211</v>
       </c>
@@ -2620,12 +2645,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="33">
-        <v>0.01</v>
+      <c r="C13" s="41">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>226</v>
@@ -2637,7 +2662,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2655,7 +2680,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="22" t="s">
         <v>197</v>
       </c>
@@ -2669,7 +2694,7 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="22" t="s">
         <v>201</v>
       </c>
@@ -2685,7 +2710,7 @@
       <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="22" t="s">
         <v>202</v>
       </c>
@@ -2701,7 +2726,7 @@
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2721,13 +2746,13 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="40">
         <f>C13*C11</f>
-        <v>2.0000000000000002E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662E67FF-9169-4DC3-923A-E726275778B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A971AF-9FB0-44BB-AAF9-2A47B4165D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0.000000%"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -988,6 +988,9 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,10 +1006,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,16 +1330,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1353,23 +1353,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1390,16 +1390,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1443,20 +1443,20 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1480,26 +1480,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C19</f>
-        <v>-9.9999999999999995E-7</v>
+        <v>-2.0000000000000002E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
@@ -1574,7 +1574,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1583,17 +1583,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1641,19 +1641,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1697,16 +1697,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1748,17 +1748,17 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -1780,14 +1780,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2339,87 +2339,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2433,22 +2433,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2471,8 +2471,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2491,8 +2491,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="38"/>
       <c r="B3" s="17" t="s">
         <v>192</v>
       </c>
@@ -2506,8 +2506,8 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
       <c r="B4" s="17" t="s">
         <v>194</v>
       </c>
@@ -2523,8 +2523,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
       <c r="B5" s="17" t="s">
         <v>196</v>
       </c>
@@ -2538,8 +2538,8 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
@@ -2551,8 +2551,8 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -2564,8 +2564,8 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
       <c r="B8" s="17" t="s">
         <v>210</v>
       </c>
@@ -2579,8 +2579,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
       <c r="B9" s="17" t="s">
         <v>216</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>214</v>
       </c>
@@ -2609,8 +2609,8 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -2625,8 +2625,8 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
       <c r="B12" s="16" t="s">
         <v>211</v>
       </c>
@@ -2644,13 +2644,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
       <c r="B13" s="16" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="41">
-        <v>5.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>226</v>
@@ -2661,8 +2661,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2679,8 +2679,8 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
       <c r="B15" s="22" t="s">
         <v>197</v>
       </c>
@@ -2693,8 +2693,8 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="40"/>
       <c r="B16" s="22" t="s">
         <v>201</v>
       </c>
@@ -2709,8 +2709,8 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
       <c r="B17" s="22" t="s">
         <v>202</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2745,14 +2745,14 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="35">
         <f>C13*C11</f>
-        <v>9.9999999999999995E-7</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2761,32 +2761,32 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33">
         <f>(140-75)/5</f>
         <v>13</v>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A971AF-9FB0-44BB-AAF9-2A47B4165D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D330B-F20A-4109-8BAD-37062DCC5958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>0-0.05,0.01</t>
+    <t>0.5% - 2%, 0.5%</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000000%"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.000000%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -924,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -982,13 +982,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,9 +1004,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1428,7 +1425,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C18</f>
-        <v>1.075</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>188</v>
@@ -1480,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,14 +1561,14 @@
         <v>225</v>
       </c>
       <c r="J2" s="1">
-        <v>-9.9999999999999995E-7</v>
+        <v>-5.0000000000000002E-5</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
         <f>(K2-J2)/5</f>
-        <v>1.9999999999999999E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2433,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2480,7 +2477,7 @@
       </c>
       <c r="C2" s="24">
         <f>C3*C4</f>
-        <v>161250</v>
+        <v>160500</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
@@ -2512,7 +2509,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="24">
-        <v>107.5</v>
+        <v>107</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>222</v>
@@ -2543,7 +2540,7 @@
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="33">
         <v>8.3479305095333606E-2</v>
       </c>
       <c r="D6" s="24"/>
@@ -2616,7 +2613,7 @@
       <c r="B11" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="35">
         <f>C10/C8</f>
         <v>2E-3</v>
       </c>
@@ -2631,7 +2628,7 @@
         <v>211</v>
       </c>
       <c r="C12" s="25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>224</v>
@@ -2649,7 +2646,7 @@
       <c r="B13" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="35">
         <v>0.01</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -2670,7 +2667,7 @@
       </c>
       <c r="C14" s="27">
         <f>C12*C10</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27" t="s">
@@ -2700,7 +2697,7 @@
       </c>
       <c r="C16" s="27">
         <f>C2*(C14*10^4/C3)^C5/10^6</f>
-        <v>1.075</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
@@ -2716,7 +2713,7 @@
       </c>
       <c r="C17" s="27">
         <f>C16*10^2/C14</f>
-        <v>107.5</v>
+        <v>107</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
@@ -2734,7 +2731,7 @@
       </c>
       <c r="C18" s="26">
         <f>C16</f>
-        <v>1.075</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26" t="s">
@@ -2750,7 +2747,7 @@
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <f>C13*C11</f>
         <v>2.0000000000000002E-5</v>
       </c>

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0D330B-F20A-4109-8BAD-37062DCC5958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD565455-8FF0-48B4-B902-FDC1BF5EFD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="228">
   <si>
     <t>level_row</t>
   </si>
@@ -719,16 +719,21 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>0.5% - 2%, 0.5%</t>
+    <t>0-0.05,0.01</t>
+  </si>
+  <si>
+    <t>0.5-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000%"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -924,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -991,6 +996,13 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,16 +1339,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1350,23 +1362,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1384,19 +1396,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1425,7 +1437,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C18</f>
-        <v>0.53500000000000003</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>188</v>
@@ -1440,20 +1452,20 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1477,26 +1489,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
-    <col min="8" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1531,7 +1543,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1552,7 +1564,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C19</f>
-        <v>-2.0000000000000002E-5</v>
+        <v>-1.8604651162790694E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
@@ -1561,17 +1573,17 @@
         <v>225</v>
       </c>
       <c r="J2" s="1">
-        <v>-5.0000000000000002E-5</v>
+        <v>-1.8604651162790694E-5</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
         <f>(K2-J2)/5</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>3.7209302325581386E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1580,17 +1592,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1638,19 +1650,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1"/>
-    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1694,16 +1706,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1745,17 +1757,17 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -1777,14 +1789,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1796,7 +1808,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1873,7 +1885,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1895,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1906,7 +1918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1928,7 +1940,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1972,7 +1984,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +1995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2027,7 +2039,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2049,7 +2061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2060,7 +2072,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2082,7 +2094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2104,7 +2116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2115,7 +2127,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2137,7 +2149,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2159,7 +2171,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2170,7 +2182,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2192,7 +2204,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2200,7 +2212,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2216,7 +2228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2240,7 +2252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2264,7 +2276,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2336,87 +2348,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2430,22 +2442,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2468,8 +2480,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2477,7 +2489,7 @@
       </c>
       <c r="C2" s="24">
         <f>C3*C4</f>
-        <v>160500</v>
+        <v>161250</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
@@ -2488,8 +2500,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>192</v>
       </c>
@@ -2503,13 +2515,13 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>194</v>
       </c>
       <c r="C4" s="24">
-        <v>107</v>
+        <v>107.5</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>222</v>
@@ -2520,8 +2532,8 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>196</v>
       </c>
@@ -2535,8 +2547,8 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
       </c>
@@ -2548,8 +2560,8 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
       </c>
@@ -2561,8 +2573,8 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
       <c r="B8" s="17" t="s">
         <v>210</v>
       </c>
@@ -2576,8 +2588,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
       <c r="B9" s="17" t="s">
         <v>216</v>
       </c>
@@ -2591,7 +2603,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>214</v>
       </c>
@@ -2599,35 +2611,35 @@
         <v>210</v>
       </c>
       <c r="C10" s="31">
-        <v>1</v>
+        <v>1.8604651162790695</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="36">
         <f>C10/C8</f>
-        <v>2E-3</v>
+        <v>3.7209302325581389E-3</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
       <c r="B12" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="37">
         <v>0.5</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -2641,13 +2653,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="16" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="35">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>226</v>
@@ -2658,8 +2670,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
         <v>179</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2667,7 +2679,7 @@
       </c>
       <c r="C14" s="27">
         <f>C12*C10</f>
-        <v>0.5</v>
+        <v>0.93023255813953476</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27" t="s">
@@ -2676,28 +2688,28 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
       <c r="B15" s="22" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="27">
         <f>C9/C10</f>
-        <v>1</v>
+        <v>0.53750000000000009</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
       <c r="B16" s="22" t="s">
         <v>201</v>
       </c>
       <c r="C16" s="27">
         <f>C2*(C14*10^4/C3)^C5/10^6</f>
-        <v>0.53500000000000003</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
@@ -2706,14 +2718,14 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
       <c r="B17" s="22" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="27">
         <f>C16*10^2/C14</f>
-        <v>107</v>
+        <v>107.5</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
@@ -2722,8 +2734,8 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -2731,7 +2743,7 @@
       </c>
       <c r="C18" s="26">
         <f>C16</f>
-        <v>0.53500000000000003</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26" t="s">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C19" s="34">
         <f>C13*C11</f>
-        <v>2.0000000000000002E-5</v>
+        <v>1.8604651162790694E-5</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2758,36 +2770,42 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33">
         <f>(140-75)/5</f>
         <v>13</v>
       </c>
+      <c r="G33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/CVX_Kenya/Interventions/Shading_nets.xlsx
+++ b/CVX_Kenya/Interventions/Shading_nets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD565455-8FF0-48B4-B902-FDC1BF5EFD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FD262F-E59B-47D1-B4AC-235D5C9449E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -719,10 +719,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>0-0.05,0.01</t>
-  </si>
-  <si>
     <t>0.5-1</t>
+  </si>
+  <si>
+    <t>0-2.5%,0.5%</t>
   </si>
 </sst>
 </file>
@@ -1339,16 +1339,16 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1362,23 +1362,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="9"/>
       <c r="C2"/>
       <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1399,16 +1399,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C18</f>
-        <v>0.99999999999999989</v>
+        <v>537.5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>188</v>
@@ -1452,20 +1452,20 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1489,26 +1489,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="9" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.109375" style="1"/>
     <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C19</f>
-        <v>-1.8604651162790694E-5</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>188</v>
@@ -1583,7 +1583,7 @@
         <v>3.7209302325581386E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1592,17 +1592,17 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1650,19 +1650,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1706,16 +1706,16 @@
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1757,17 +1757,17 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>215</v>
       </c>
@@ -1789,14 +1789,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2348,87 +2348,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2442,22 +2442,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>172</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>192</v>
@@ -2515,7 +2515,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>194</v>
@@ -2532,7 +2532,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>196</v>
@@ -2547,7 +2547,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>183</v>
@@ -2560,7 +2560,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="17" t="s">
         <v>182</v>
@@ -2573,7 +2573,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="17" t="s">
         <v>210</v>
@@ -2588,7 +2588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="17" t="s">
         <v>216</v>
@@ -2603,7 +2603,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>214</v>
       </c>
@@ -2611,14 +2611,14 @@
         <v>210</v>
       </c>
       <c r="C10" s="31">
-        <v>1.8604651162790695</v>
+        <v>500</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>178</v>
       </c>
@@ -2627,20 +2627,20 @@
       </c>
       <c r="C11" s="36">
         <f>C10/C8</f>
-        <v>3.7209302325581389E-3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="16" t="s">
         <v>211</v>
       </c>
       <c r="C12" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>224</v>
@@ -2653,16 +2653,16 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="16" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="35">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="21"/>
@@ -2670,7 +2670,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>179</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="C14" s="27">
         <f>C12*C10</f>
-        <v>0.93023255813953476</v>
+        <v>500</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27" t="s">
@@ -2688,28 +2688,28 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="22" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="27">
         <f>C9/C10</f>
-        <v>0.53750000000000009</v>
+        <v>2E-3</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="22" t="s">
         <v>201</v>
       </c>
       <c r="C16" s="27">
         <f>C2*(C14*10^4/C3)^C5/10^6</f>
-        <v>0.99999999999999989</v>
+        <v>537.5</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27" t="s">
@@ -2718,7 +2718,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="22" t="s">
         <v>202</v>
@@ -2734,7 +2734,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>180</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="C18" s="26">
         <f>C16</f>
-        <v>0.99999999999999989</v>
+        <v>537.5</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26" t="s">
@@ -2754,14 +2754,14 @@
       </c>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C19" s="34">
         <f>C13*C11</f>
-        <v>1.8604651162790694E-5</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -2770,37 +2770,37 @@
       </c>
       <c r="G19" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33">
         <f>(140-75)/5</f>
         <v>13</v>
